--- a/data/climate_data_availability/6191_data.xlsx
+++ b/data/climate_data_availability/6191_data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_262064899521B19DB1D916E1A71B43688ED1FFAF" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179016" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="24">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -32,16 +36,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -62,41 +63,44 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
   </si>
   <si>
-    <t>hygrometricite_max</t>
+    <t>t3</t>
   </si>
   <si>
-    <t>hygrometricite_min</t>
+    <t>actino</t>
   </si>
   <si>
-    <t>Longitude</t>
+    <t>hygro</t>
   </si>
   <si>
-    <t>latitude</t>
+    <t>Lat</t>
   </si>
   <si>
-    <t>altitude</t>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Alt</t>
   </si>
   <si>
     <t>Kiniati</t>
   </si>
   <si>
-    <t>12°51'</t>
+    <t>5°13'</t>
   </si>
   <si>
-    <t>5°13'</t>
+    <t>12°51'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,63 +251,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="88">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
@@ -311,29 +319,25 @@
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,9 +429,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,6 +481,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,37 +673,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="125" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="L36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -697,22 +735,25 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>6191</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -763,18 +804,18 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>6191</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -825,12 +866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>6191</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -881,12 +922,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>6191</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -937,12 +978,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>6191</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -993,12 +1034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6191</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1049,12 +1090,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>6191</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1105,12 +1146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>6191</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1161,12 +1202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>6191</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1217,12 +1258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>6191</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1273,12 +1314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>6191</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1329,12 +1370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>6191</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1385,12 +1426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>6191</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -1441,12 +1482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>6191</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1497,12 +1538,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>6191</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1553,12 +1594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>6191</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1609,12 +1650,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>6191</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -1665,12 +1706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>6191</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1721,12 +1762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>6191</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1777,12 +1818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>6191</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1833,12 +1874,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>6191</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1889,12 +1930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>6191</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1945,12 +1986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>6191</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2001,12 +2042,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>6191</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -2057,12 +2098,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>6191</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -2113,12 +2154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>6191</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -2169,12 +2210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>6191</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -2225,12 +2266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>6191</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -2281,12 +2322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>6191</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -2337,12 +2378,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>6191</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2393,12 +2434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>6191</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2449,12 +2490,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>6191</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2505,12 +2546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>6191</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2561,12 +2602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>6191</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2617,12 +2658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>6191</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2673,12 +2714,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>6191</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -2729,12 +2770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>6191</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -2785,12 +2826,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>6191</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -2841,12 +2882,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>6191</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -2897,12 +2938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>6191</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -2953,12 +2994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>6191</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -3009,12 +3050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>6191</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -3065,12 +3106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>6191</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -3121,12 +3162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>6191</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -3177,12 +3218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>6191</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -3233,12 +3274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>6191</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3289,12 +3330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>6191</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3345,12 +3386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>6191</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>12</v>
@@ -3401,12 +3442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>6191</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>11</v>
@@ -3457,12 +3498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>6191</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -3513,12 +3554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>6191</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -3569,12 +3610,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>6191</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -3625,12 +3666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>6191</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -3681,12 +3722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>6191</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -3737,12 +3778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>6191</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -3793,12 +3834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>6191</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -3849,12 +3890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>6191</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3905,12 +3946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>6191</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3961,12 +4002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>6191</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4017,12 +4058,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>6191</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>12</v>
@@ -4073,12 +4114,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>6191</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>11</v>
@@ -4129,12 +4170,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>6191</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -4185,12 +4226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>6191</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -4241,12 +4282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>6191</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>8</v>
@@ -4297,12 +4338,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>6191</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -4353,12 +4394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>6191</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>6</v>
@@ -4409,12 +4450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>6191</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -4465,12 +4506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>6191</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -4521,12 +4562,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>6191</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4577,12 +4618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>6191</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4633,12 +4674,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>6191</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4689,12 +4730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>6191</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73">
         <v>12</v>
@@ -4745,12 +4786,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>6191</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>11</v>
@@ -4801,12 +4842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>6191</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -4857,12 +4898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>6191</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -4913,12 +4954,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>6191</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C77">
         <v>8</v>
@@ -4969,12 +5010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>6191</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -5025,12 +5066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>6191</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -5081,12 +5122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>6191</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -5137,12 +5178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>6191</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -5193,12 +5234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>6191</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -5249,12 +5290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>6191</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -5305,12 +5346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>6191</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5361,12 +5402,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>6191</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C85">
         <v>12</v>
@@ -5417,12 +5458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>6191</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86">
         <v>11</v>
@@ -5473,12 +5514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>6191</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>10</v>
@@ -5529,12 +5570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>6191</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -5585,12 +5626,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>6191</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -5641,12 +5682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>6191</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C90">
         <v>7</v>
@@ -5697,12 +5738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>6191</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -5753,12 +5794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>6191</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -5809,12 +5850,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>6191</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -5865,12 +5906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>6191</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -5921,12 +5962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>6191</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -5977,12 +6018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>6191</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -6033,12 +6074,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>6191</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C97">
         <v>12</v>
@@ -6089,12 +6130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>6191</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C98">
         <v>11</v>
@@ -6145,12 +6186,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>6191</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99">
         <v>10</v>
@@ -6201,12 +6242,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>6191</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -6257,12 +6298,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>6191</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C101">
         <v>8</v>
@@ -6313,12 +6354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>6191</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C102">
         <v>7</v>
@@ -6369,12 +6410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>6191</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -6425,12 +6466,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>6191</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -6481,12 +6522,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>6191</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -6537,12 +6578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>6191</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -6593,12 +6634,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>6191</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -6649,12 +6690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>6191</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -6705,12 +6746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>6191</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C109">
         <v>12</v>
@@ -6761,12 +6802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>6191</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C110">
         <v>11</v>
@@ -6817,12 +6858,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>6191</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C111">
         <v>10</v>
@@ -6873,12 +6914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>6191</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C112">
         <v>9</v>
@@ -6929,12 +6970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>6191</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C113">
         <v>8</v>
@@ -6985,12 +7026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>6191</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C114">
         <v>7</v>
@@ -7041,12 +7082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>6191</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115">
         <v>6</v>
@@ -7097,12 +7138,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>6191</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C116">
         <v>5</v>
@@ -7153,12 +7194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117">
         <v>6191</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C117">
         <v>4</v>
@@ -7209,12 +7250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18">
       <c r="A118">
         <v>6191</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -7265,12 +7306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18">
       <c r="A119">
         <v>6191</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -7321,12 +7362,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120">
         <v>6191</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -7377,12 +7418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121">
         <v>6191</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C121">
         <v>12</v>
@@ -7433,12 +7474,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18">
       <c r="A122">
         <v>6191</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C122">
         <v>11</v>
@@ -7489,12 +7530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18">
       <c r="A123">
         <v>6191</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C123">
         <v>10</v>
@@ -7545,12 +7586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124">
         <v>6191</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C124">
         <v>9</v>
@@ -7601,12 +7642,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125">
         <v>6191</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C125">
         <v>8</v>
@@ -7657,12 +7698,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126">
         <v>6191</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C126">
         <v>7</v>
@@ -7713,12 +7754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127">
         <v>6191</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C127">
         <v>6</v>
@@ -7769,12 +7810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18">
       <c r="A128">
         <v>6191</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -7825,12 +7866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18">
       <c r="A129">
         <v>6191</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C129">
         <v>4</v>
@@ -7881,12 +7922,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18">
       <c r="A130">
         <v>6191</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C130">
         <v>3</v>
@@ -7937,12 +7978,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18">
       <c r="A131">
         <v>6191</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C131">
         <v>6</v>
@@ -7993,12 +8034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18">
       <c r="A132">
         <v>6191</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C132">
         <v>7</v>
@@ -8049,12 +8090,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18">
       <c r="A133">
         <v>6191</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C133">
         <v>8</v>
@@ -8105,12 +8146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18">
       <c r="A134">
         <v>6191</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C134">
         <v>9</v>
@@ -8161,12 +8202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18">
       <c r="A135">
         <v>6191</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C135">
         <v>10</v>
@@ -8217,12 +8258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18">
       <c r="A136">
         <v>6191</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C136">
         <v>11</v>
@@ -8273,12 +8314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18">
       <c r="A137">
         <v>6191</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C137">
         <v>12</v>
@@ -8329,12 +8370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18">
       <c r="A138">
         <v>6191</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -8385,12 +8426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18">
       <c r="A139">
         <v>6191</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -8441,12 +8482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18">
       <c r="A140">
         <v>6191</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -8497,12 +8538,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18">
       <c r="A141">
         <v>6191</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -8553,12 +8594,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18">
       <c r="A142">
         <v>6191</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -8609,12 +8650,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18">
       <c r="A143">
         <v>6191</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C143">
         <v>6</v>
@@ -8665,12 +8706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18">
       <c r="A144">
         <v>6191</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C144">
         <v>7</v>
@@ -8721,12 +8762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18">
       <c r="A145">
         <v>6191</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C145">
         <v>8</v>
@@ -8777,12 +8818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18">
       <c r="A146">
         <v>6191</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C146">
         <v>9</v>
@@ -8833,12 +8874,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18">
       <c r="A147">
         <v>6191</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C147">
         <v>10</v>
@@ -8889,12 +8930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18">
       <c r="A148">
         <v>6191</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C148">
         <v>11</v>
@@ -8945,12 +8986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18">
       <c r="A149">
         <v>6191</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C149">
         <v>12</v>
@@ -9001,12 +9042,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18">
       <c r="A150">
         <v>6191</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -9057,12 +9098,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18">
       <c r="A151">
         <v>6191</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -9113,12 +9154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18">
       <c r="A152">
         <v>6191</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C152">
         <v>5</v>
@@ -9169,12 +9210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18">
       <c r="A153">
         <v>6191</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C153">
         <v>4</v>
@@ -9225,12 +9266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18">
       <c r="A154">
         <v>6191</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C154">
         <v>3</v>
@@ -9281,12 +9322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18">
       <c r="A155">
         <v>6191</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C155">
         <v>2</v>
@@ -9337,12 +9378,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18">
       <c r="A156">
         <v>6191</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -9393,12 +9434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18">
       <c r="A157">
         <v>6191</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C157">
         <v>12</v>
@@ -9449,12 +9490,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18">
       <c r="A158">
         <v>6191</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C158">
         <v>11</v>
@@ -9505,12 +9546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18">
       <c r="A159">
         <v>6191</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C159">
         <v>10</v>
@@ -9561,12 +9602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18">
       <c r="A160">
         <v>6191</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C160">
         <v>9</v>
@@ -9617,12 +9658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18">
       <c r="A161">
         <v>6191</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C161">
         <v>8</v>
@@ -9673,12 +9714,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18">
       <c r="A162">
         <v>6191</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C162">
         <v>7</v>
@@ -9729,12 +9770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18">
       <c r="A163">
         <v>6191</v>
       </c>
       <c r="B163" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C163">
         <v>6</v>
@@ -9785,12 +9826,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18">
       <c r="A164">
         <v>6191</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C164">
         <v>5</v>
@@ -9841,12 +9882,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18">
       <c r="A165">
         <v>6191</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -9897,12 +9938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18">
       <c r="A166">
         <v>6191</v>
       </c>
       <c r="B166" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C166">
         <v>3</v>
@@ -9953,12 +9994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18">
       <c r="A167">
         <v>6191</v>
       </c>
       <c r="B167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -10009,12 +10050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18">
       <c r="A168">
         <v>6191</v>
       </c>
       <c r="B168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -10065,12 +10106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18">
       <c r="A169">
         <v>6191</v>
       </c>
       <c r="B169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C169">
         <v>12</v>
@@ -10121,12 +10162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18">
       <c r="A170">
         <v>6191</v>
       </c>
       <c r="B170" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C170">
         <v>11</v>
@@ -10177,12 +10218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18">
       <c r="A171">
         <v>6191</v>
       </c>
       <c r="B171" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C171">
         <v>10</v>
@@ -10233,12 +10274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18">
       <c r="A172">
         <v>6191</v>
       </c>
       <c r="B172" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C172">
         <v>9</v>
@@ -10289,12 +10330,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18">
       <c r="A173">
         <v>6191</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C173">
         <v>8</v>
@@ -10345,12 +10386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18">
       <c r="A174">
         <v>6191</v>
       </c>
       <c r="B174" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C174">
         <v>7</v>
@@ -10401,12 +10442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18">
       <c r="A175">
         <v>6191</v>
       </c>
       <c r="B175" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C175">
         <v>6</v>
@@ -10457,12 +10498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18">
       <c r="A176">
         <v>6191</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -10513,12 +10554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18">
       <c r="A177">
         <v>6191</v>
       </c>
       <c r="B177" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C177">
         <v>4</v>
@@ -10569,12 +10610,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18">
       <c r="A178">
         <v>6191</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -10625,12 +10666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18">
       <c r="A179">
         <v>6191</v>
       </c>
       <c r="B179" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C179">
         <v>2</v>
@@ -10681,12 +10722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18">
       <c r="A180">
         <v>6191</v>
       </c>
       <c r="B180" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -10737,12 +10778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18">
       <c r="A181">
         <v>6191</v>
       </c>
       <c r="B181" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C181">
         <v>12</v>
@@ -10793,12 +10834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18">
       <c r="A182">
         <v>6191</v>
       </c>
       <c r="B182" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C182">
         <v>11</v>
@@ -10849,12 +10890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18">
       <c r="A183">
         <v>6191</v>
       </c>
       <c r="B183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C183">
         <v>10</v>
@@ -10905,12 +10946,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18">
       <c r="A184">
         <v>6191</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C184">
         <v>9</v>
@@ -10961,12 +11002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18">
       <c r="A185">
         <v>6191</v>
       </c>
       <c r="B185" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C185">
         <v>8</v>
@@ -11017,12 +11058,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18">
       <c r="A186">
         <v>6191</v>
       </c>
       <c r="B186" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C186">
         <v>7</v>
@@ -11073,12 +11114,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18">
       <c r="A187">
         <v>6191</v>
       </c>
       <c r="B187" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C187">
         <v>6</v>
@@ -11129,12 +11170,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18">
       <c r="A188">
         <v>6191</v>
       </c>
       <c r="B188" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C188">
         <v>5</v>
@@ -11185,12 +11226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18">
       <c r="A189">
         <v>6191</v>
       </c>
       <c r="B189" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C189">
         <v>4</v>
@@ -11241,12 +11282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18">
       <c r="A190">
         <v>6191</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -11297,12 +11338,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18">
       <c r="A191">
         <v>6191</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -11353,12 +11394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18">
       <c r="A192">
         <v>6191</v>
       </c>
       <c r="B192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -11409,12 +11450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18">
       <c r="A193">
         <v>6191</v>
       </c>
       <c r="B193" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C193">
         <v>12</v>
@@ -11465,12 +11506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18">
       <c r="A194">
         <v>6191</v>
       </c>
       <c r="B194" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C194">
         <v>11</v>
@@ -11521,12 +11562,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18">
       <c r="A195">
         <v>6191</v>
       </c>
       <c r="B195" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C195">
         <v>10</v>
@@ -11577,12 +11618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18">
       <c r="A196">
         <v>6191</v>
       </c>
       <c r="B196" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C196">
         <v>9</v>
@@ -11633,12 +11674,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18">
       <c r="A197">
         <v>6191</v>
       </c>
       <c r="B197" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C197">
         <v>8</v>
@@ -11689,12 +11730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18">
       <c r="A198">
         <v>6191</v>
       </c>
       <c r="B198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C198">
         <v>7</v>
@@ -11745,12 +11786,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18">
       <c r="A199">
         <v>6191</v>
       </c>
       <c r="B199" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C199">
         <v>6</v>
@@ -11801,12 +11842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18">
       <c r="A200">
         <v>6191</v>
       </c>
       <c r="B200" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C200">
         <v>5</v>
@@ -11857,12 +11898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18">
       <c r="A201">
         <v>6191</v>
       </c>
       <c r="B201" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C201">
         <v>4</v>
@@ -11913,12 +11954,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18">
       <c r="A202">
         <v>6191</v>
       </c>
       <c r="B202" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C202">
         <v>3</v>
@@ -11969,12 +12010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18">
       <c r="A203">
         <v>6191</v>
       </c>
       <c r="B203" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -12025,12 +12066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18">
       <c r="A204">
         <v>6191</v>
       </c>
       <c r="B204" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -12081,12 +12122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18">
       <c r="A205">
         <v>6191</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C205">
         <v>12</v>
@@ -12137,12 +12178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18">
       <c r="A206">
         <v>6191</v>
       </c>
       <c r="B206" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C206">
         <v>11</v>
@@ -12193,12 +12234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18">
       <c r="A207">
         <v>6191</v>
       </c>
       <c r="B207" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C207">
         <v>10</v>
@@ -12249,12 +12290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18">
       <c r="A208">
         <v>6191</v>
       </c>
       <c r="B208" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C208">
         <v>9</v>
@@ -12305,12 +12346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18">
       <c r="A209">
         <v>6191</v>
       </c>
       <c r="B209" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C209">
         <v>8</v>
@@ -12361,12 +12402,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18">
       <c r="A210">
         <v>6191</v>
       </c>
       <c r="B210" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C210">
         <v>7</v>
@@ -12417,12 +12458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18">
       <c r="A211">
         <v>6191</v>
       </c>
       <c r="B211" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C211">
         <v>6</v>
@@ -12473,12 +12514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18">
       <c r="A212">
         <v>6191</v>
       </c>
       <c r="B212" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C212">
         <v>5</v>
@@ -12529,12 +12570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18">
       <c r="A213">
         <v>6191</v>
       </c>
       <c r="B213" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C213">
         <v>4</v>
@@ -12585,12 +12626,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18">
       <c r="A214">
         <v>6191</v>
       </c>
       <c r="B214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -12641,12 +12682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18">
       <c r="A215">
         <v>6191</v>
       </c>
       <c r="B215" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C215">
         <v>2</v>
@@ -12697,12 +12738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18">
       <c r="A216">
         <v>6191</v>
       </c>
       <c r="B216" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -12753,12 +12794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18">
       <c r="A217">
         <v>6191</v>
       </c>
       <c r="B217" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C217">
         <v>12</v>
@@ -12809,12 +12850,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18">
       <c r="A218">
         <v>6191</v>
       </c>
       <c r="B218" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C218">
         <v>11</v>
@@ -12865,12 +12906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18">
       <c r="A219">
         <v>6191</v>
       </c>
       <c r="B219" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C219">
         <v>10</v>
@@ -12921,12 +12962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18">
       <c r="A220">
         <v>6191</v>
       </c>
       <c r="B220" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C220">
         <v>9</v>
@@ -12977,12 +13018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18">
       <c r="A221">
         <v>6191</v>
       </c>
       <c r="B221" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C221">
         <v>8</v>
@@ -13033,12 +13074,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18">
       <c r="A222">
         <v>6191</v>
       </c>
       <c r="B222" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C222">
         <v>7</v>
@@ -13089,12 +13130,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18">
       <c r="A223">
         <v>6191</v>
       </c>
       <c r="B223" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C223">
         <v>6</v>
@@ -13145,12 +13186,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18">
       <c r="A224">
         <v>6191</v>
       </c>
       <c r="B224" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C224">
         <v>5</v>
@@ -13201,12 +13242,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18">
       <c r="A225">
         <v>6191</v>
       </c>
       <c r="B225" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C225">
         <v>4</v>
@@ -13257,12 +13298,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18">
       <c r="A226">
         <v>6191</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C226">
         <v>3</v>
@@ -13313,12 +13354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18">
       <c r="A227">
         <v>6191</v>
       </c>
       <c r="B227" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C227">
         <v>2</v>
@@ -13369,12 +13410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18">
       <c r="A228">
         <v>6191</v>
       </c>
       <c r="B228" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -13425,12 +13466,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18">
       <c r="A229">
         <v>6191</v>
       </c>
       <c r="B229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C229">
         <v>12</v>
@@ -13481,12 +13522,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18">
       <c r="A230">
         <v>6191</v>
       </c>
       <c r="B230" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C230">
         <v>11</v>
@@ -13537,12 +13578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18">
       <c r="A231">
         <v>6191</v>
       </c>
       <c r="B231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C231">
         <v>10</v>
@@ -13593,12 +13634,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18">
       <c r="A232">
         <v>6191</v>
       </c>
       <c r="B232" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C232">
         <v>9</v>
@@ -13649,12 +13690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18">
       <c r="A233">
         <v>6191</v>
       </c>
       <c r="B233" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C233">
         <v>8</v>
@@ -13705,12 +13746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18">
       <c r="A234">
         <v>6191</v>
       </c>
       <c r="B234" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C234">
         <v>7</v>
@@ -13761,12 +13802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18">
       <c r="A235">
         <v>6191</v>
       </c>
       <c r="B235" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C235">
         <v>6</v>
@@ -13817,12 +13858,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18">
       <c r="A236">
         <v>6191</v>
       </c>
       <c r="B236" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C236">
         <v>5</v>
@@ -13873,12 +13914,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18">
       <c r="A237">
         <v>6191</v>
       </c>
       <c r="B237" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C237">
         <v>4</v>
@@ -13929,12 +13970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18">
       <c r="A238">
         <v>6191</v>
       </c>
       <c r="B238" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C238">
         <v>3</v>
@@ -13985,12 +14026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18">
       <c r="A239">
         <v>6191</v>
       </c>
       <c r="B239" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C239">
         <v>2</v>
@@ -14041,12 +14082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18">
       <c r="A240">
         <v>6191</v>
       </c>
       <c r="B240" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -14109,12 +14150,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -14126,12 +14167,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
